--- a/Source_Files/Automated_Drawing/DatacentreRack march 2019(1).xlsx
+++ b/Source_Files/Automated_Drawing/DatacentreRack march 2019(1).xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thaiveena\PRI\Woking_Src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thaiveena\PRI\Woking_Src\Final\Source_Files\Automated_Drawing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651611FB-9D2F-4B96-9831-312BC67B4BFB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAB93F5-230D-4E16-A7D7-2F49D7B39BA6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Feuille 1'!$A$1:$P$1</definedName>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7490" uniqueCount="1417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7475" uniqueCount="1417">
   <si>
     <t>Data Centre</t>
   </si>
@@ -4650,7 +4649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
@@ -38898,100 +38897,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0BDF498-107F-4B99-84BA-863800078BD4}">
-  <dimension ref="A1:A16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>